--- a/documents/TestCase Report.xlsx
+++ b/documents/TestCase Report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>Function Name</t>
   </si>
@@ -25,6 +25,18 @@
     <t>Status</t>
   </si>
   <si>
+    <t>testuserregistration</t>
+  </si>
+  <si>
+    <t>user details</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
     <t>testLoginWithValidCredentials</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
   </si>
   <si>
     <t>valid token, project details, team</t>
-  </si>
-  <si>
-    <t>boolean</t>
   </si>
   <si>
     <t>testCreateProject_ManagerMaxProjectException</t>
@@ -205,12 +214,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
@@ -464,286 +476,299 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1"/>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
@@ -1721,6 +1746,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
